--- a/Excel Files/Scenario 1/Expected Data/TC195/Expected Sales Order.xlsx
+++ b/Excel Files/Scenario 1/Expected Data/TC195/Expected Sales Order.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="118">
   <si>
     <t>#{Label_Title}</t>
   </si>
@@ -339,7 +339,7 @@
     <t>Islamic Republic of Pakistan,PK-CUS</t>
   </si>
   <si>
-    <t>sCB101-2311002</t>
+    <t>sDB104-2311002</t>
   </si>
   <si>
     <t>Firm</t>
@@ -351,7 +351,7 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>06 Nov 2023 - 12 Nov 2023</t>
+    <t>27 Nov 2023 - 03 Dec 2023</t>
   </si>
   <si>
     <t>By Invoice Date</t>
@@ -378,7 +378,7 @@
     <t>b00003</t>
   </si>
   <si>
-    <t>cCB101-2311002</t>
+    <t>cDB104-2311002</t>
   </si>
   <si>
     <t>PK-CUS-POC</t>
@@ -390,7 +390,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Completed</t>
+    <t>Processing</t>
   </si>
   <si>
     <t>s1004</t>
@@ -9544,7 +9544,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="20" max="16384" style="19" width="12.625" collapsed="true"/>
+    <col min="21" max="16384" style="19" width="12.625" collapsed="true"/>
+    <col min="20" max="20" style="19" width="18.75" collapsed="true" customWidth="true"/>
     <col min="19" max="19" style="19" width="18.75" collapsed="true" customWidth="true"/>
     <col min="15" max="17" style="19" width="12.625" collapsed="true"/>
     <col min="18" max="18" style="19" width="18.75" collapsed="true" customWidth="true"/>
@@ -9916,7 +9917,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="29" t="n">
-        <v>45231.0</v>
+        <v>45250.0</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -10023,6 +10024,9 @@
         <v>82</v>
       </c>
       <c r="S21" s="1"/>
+      <c r="T21" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="22" spans="2:16" ht="25.5" customHeight="1">
       <c r="B22" s="32"/>
@@ -10043,6 +10047,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="32"/>
@@ -10059,13 +10064,16 @@
       <c r="M23" s="35"/>
       <c r="N23" s="1"/>
       <c r="O23" s="2" t="n">
-        <v>45239.0</v>
+        <v>45252.0</v>
       </c>
       <c r="R23" s="2" t="n">
+        <v>45280.0</v>
+      </c>
+      <c r="S23" s="2" t="n">
+        <v>45311.0</v>
+      </c>
+      <c r="T23" s="2" t="n">
         <v>45261.0</v>
-      </c>
-      <c r="S23" s="2" t="n">
-        <v>45292.0</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -10109,16 +10117,19 @@
         <v>109</v>
       </c>
       <c r="O24" s="42" t="n">
-        <v>660.0</v>
+        <v>0.0</v>
       </c>
       <c r="P24" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="Q24" s="42" t="n">
-        <v>660.0</v>
+        <v>0.0</v>
       </c>
       <c r="R24" s="42"/>
       <c r="S24" s="42" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="T24" s="42" t="n">
         <v>660.0</v>
       </c>
     </row>
@@ -10163,18 +10174,21 @@
         <v>109</v>
       </c>
       <c r="O25" s="42" t="n">
-        <v>660.0</v>
+        <v>0.0</v>
       </c>
       <c r="P25" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="Q25" s="42" t="n">
-        <v>660.0</v>
+        <v>0.0</v>
       </c>
       <c r="R25" s="42" t="n">
         <v>660.0</v>
       </c>
       <c r="S25" s="42"/>
+      <c r="T25" s="42" t="n">
+        <v>660.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="25" t="s">
@@ -10217,13 +10231,13 @@
         <v>109</v>
       </c>
       <c r="O26" s="42" t="n">
-        <v>660.0</v>
+        <v>0.0</v>
       </c>
       <c r="P26" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="Q26" s="42" t="n">
-        <v>660.0</v>
+        <v>0.0</v>
       </c>
       <c r="R26" s="42" t="n">
         <v>600.0</v>
@@ -10231,14 +10245,17 @@
       <c r="S26" s="42" t="n">
         <v>60.0</v>
       </c>
+      <c r="T26" s="42" t="n">
+        <v>660.0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="Q29" s="41" t="s">
+      <c r="R29" s="41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
-      <c r="Q30" s="41" t="s">
+      <c r="R30" s="41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -10265,6 +10282,7 @@
     <mergeCell ref="P21:P22"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="R21:S22"/>
+    <mergeCell ref="T21:T22"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
